--- a/Past_experiments/Final_experiment/collected_data/data_times.xlsx
+++ b/Past_experiments/Final_experiment/collected_data/data_times.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t xml:space="preserve">participant</t>
   </si>
@@ -52,13 +52,100 @@
     <t xml:space="preserve">TIME_total</t>
   </si>
   <si>
-    <t xml:space="preserve">s.608b3790-a526-4925-9ef1-b8f529dd9713.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-23-12-58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-23-13-23</t>
+    <t xml:space="preserve">s.6dfe81c1-4290-4cb0-b762-2b62276396b4.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-09-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-10-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.120b6e6b-37e0-4021-9ccb-28c9795ec4eb.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-09-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-10-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.1511d81c-e04b-4fed-8967-8058e8f35f78.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-09-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.de1592ad-0f5b-4dde-923a-e8703e87d474.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.6170529f-29bd-4b97-b800-d14eb78a7f9c.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-09-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-10-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.054de82a-7835-4f1b-83b3-af17e39d7d41.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-09-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-10-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.e3b607e0-6916-4ba8-bd19-ab668922f3b8.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-09-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-10-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.cf54b2bc-0a1e-4ba2-b365-ffca72e64215.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-09-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-10-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.cf80aa70-b278-413a-b6aa-9809ca09433d.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-09-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.48c5ec77-ccdd-42d7-9ca4-95199ba994fc.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-09-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-10-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.e7d2b7c7-696e-44a8-8d7a-052fd9297eb6.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-09-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.e0aa6604-dd5f-4a5a-9316-20c0e04630b8.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-09-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-10-23</t>
   </si>
 </sst>
 </file>
@@ -154,7 +241,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -162,7 +249,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
@@ -210,16 +297,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4010</v>
+        <v>3061</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>4010</v>
+        <v>3061</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>5347</v>
+        <v>6756</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>5347</v>
+        <v>6756</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
@@ -231,7 +318,326 @@
         <v>12</v>
       </c>
       <c r="J2" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>6799</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>6799</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>8289</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>8289</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3484</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3484</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>23985</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>23985</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>6098</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>6098</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>13027</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>13027</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4743</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>4743</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>7875</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7875</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5375</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5375</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>10012</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>10012</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5716</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5716</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>7945</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>7945</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>6197</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>6197</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>9598</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>9598</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2669</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2669</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>3959</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>3959</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>5035</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>5035</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>7383</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>7383</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>6164</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>6164</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>15463</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>15463</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>9040</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>9040</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>22171</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>22171</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
